--- a/experiments/2022_scientific_reports/results/statistics/stats_questionnaire_mdbf_pre_post.xlsx
+++ b/experiments/2022_scientific_reports/results/statistics/stats_questionnaire_mdbf_pre_post.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="parameter" sheetId="1" r:id="rId1"/>
     <sheet name="normality" sheetId="2" r:id="rId2"/>
-    <sheet name="pairwise_ttests" sheetId="3" r:id="rId3"/>
+    <sheet name="pairwise_tests" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -144,7 +144,7 @@
     <t>333.652</t>
   </si>
   <si>
-    <t>Pairwise t-Tests</t>
+    <t>Pairwise Tests</t>
   </si>
 </sst>
 </file>

--- a/experiments/2022_scientific_reports/results/statistics/stats_questionnaire_mdbf_pre_post.xlsx
+++ b/experiments/2022_scientific_reports/results/statistics/stats_questionnaire_mdbf_pre_post.xlsx
@@ -126,22 +126,22 @@
     <t>two-sided</t>
   </si>
   <si>
-    <t>0.827</t>
-  </si>
-  <si>
-    <t>133.877</t>
-  </si>
-  <si>
-    <t>209.653</t>
-  </si>
-  <si>
-    <t>5.214</t>
-  </si>
-  <si>
-    <t>192.078</t>
-  </si>
-  <si>
-    <t>333.652</t>
+    <t>1.132</t>
+  </si>
+  <si>
+    <t>107.004</t>
+  </si>
+  <si>
+    <t>185.507</t>
+  </si>
+  <si>
+    <t>2.396</t>
+  </si>
+  <si>
+    <t>280.442</t>
+  </si>
+  <si>
+    <t>593.948</t>
   </si>
   <si>
     <t>Pairwise Tests</t>
@@ -601,10 +601,10 @@
         <v>20</v>
       </c>
       <c r="D3">
-        <v>0.9478</v>
+        <v>0.9624</v>
       </c>
       <c r="E3">
-        <v>0.6051</v>
+        <v>0.8173</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -617,10 +617,10 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>0.9145</v>
+        <v>0.9314</v>
       </c>
       <c r="E4">
-        <v>0.2436</v>
+        <v>0.3953</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -635,10 +635,10 @@
         <v>20</v>
       </c>
       <c r="D5">
-        <v>0.824</v>
+        <v>0.8181</v>
       </c>
       <c r="E5">
-        <v>0.0178</v>
+        <v>0.0152</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -651,10 +651,10 @@
         <v>21</v>
       </c>
       <c r="D6">
-        <v>0.9382</v>
+        <v>0.9167999999999999</v>
       </c>
       <c r="E6">
-        <v>0.4755</v>
+        <v>0.2606</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -669,10 +669,10 @@
         <v>20</v>
       </c>
       <c r="D7">
-        <v>0.9498</v>
+        <v>0.9609</v>
       </c>
       <c r="E7">
-        <v>0.6347</v>
+        <v>0.7959000000000001</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -685,10 +685,10 @@
         <v>21</v>
       </c>
       <c r="D8">
-        <v>0.9593</v>
+        <v>0.9631</v>
       </c>
       <c r="E8">
-        <v>0.7734</v>
+        <v>0.8267</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -705,10 +705,10 @@
         <v>20</v>
       </c>
       <c r="D9">
-        <v>0.8975</v>
+        <v>0.9</v>
       </c>
       <c r="E9">
-        <v>0.1234</v>
+        <v>0.1339</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -721,10 +721,10 @@
         <v>21</v>
       </c>
       <c r="D10">
-        <v>0.955</v>
+        <v>0.949</v>
       </c>
       <c r="E10">
-        <v>0.676</v>
+        <v>0.5839</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -739,10 +739,10 @@
         <v>20</v>
       </c>
       <c r="D11">
-        <v>0.9656</v>
+        <v>0.9473</v>
       </c>
       <c r="E11">
-        <v>0.8362000000000001</v>
+        <v>0.5587</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -755,10 +755,10 @@
         <v>21</v>
       </c>
       <c r="D12">
-        <v>0.9745</v>
+        <v>0.9529</v>
       </c>
       <c r="E12">
-        <v>0.9412</v>
+        <v>0.6433</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="D13">
-        <v>0.9096</v>
+        <v>0.9126</v>
       </c>
       <c r="E13">
-        <v>0.1809</v>
+        <v>0.1987</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
@@ -789,10 +789,10 @@
         <v>21</v>
       </c>
       <c r="D14">
-        <v>0.9194</v>
+        <v>0.8824</v>
       </c>
       <c r="E14">
-        <v>0.2464</v>
+        <v>0.0769</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -897,7 +897,7 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>-1.6451</v>
+        <v>-1.9064</v>
       </c>
       <c r="J3">
         <v>11</v>
@@ -906,16 +906,16 @@
         <v>35</v>
       </c>
       <c r="L3">
-        <v>0.1282</v>
+        <v>0.083</v>
       </c>
       <c r="M3" t="s">
         <v>36</v>
       </c>
       <c r="N3">
-        <v>-0.5468</v>
+        <v>-0.487</v>
       </c>
       <c r="O3">
-        <v>0.3846000000000001</v>
+        <v>0.249</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -942,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>-5.3242</v>
+        <v>-5.1551</v>
       </c>
       <c r="J4">
         <v>11</v>
@@ -951,16 +951,16 @@
         <v>35</v>
       </c>
       <c r="L4">
-        <v>0.0002</v>
+        <v>0.0003</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
       </c>
       <c r="N4">
-        <v>-1.3534</v>
+        <v>-1.5555</v>
       </c>
       <c r="O4">
-        <v>0.0006000000000000001</v>
+        <v>0.0009</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -987,7 +987,7 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>-5.6696</v>
+        <v>-5.5744</v>
       </c>
       <c r="J5">
         <v>11</v>
@@ -996,16 +996,16 @@
         <v>35</v>
       </c>
       <c r="L5">
-        <v>0.0001</v>
+        <v>0.0002</v>
       </c>
       <c r="M5" t="s">
         <v>38</v>
       </c>
       <c r="N5">
-        <v>-2.174</v>
+        <v>-2.0139</v>
       </c>
       <c r="O5">
-        <v>0.0003</v>
+        <v>0.0006000000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1034,7 +1034,7 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>-2.9849</v>
+        <v>-2.4594</v>
       </c>
       <c r="J6">
         <v>12</v>
@@ -1043,16 +1043,16 @@
         <v>35</v>
       </c>
       <c r="L6">
-        <v>0.0114</v>
+        <v>0.0301</v>
       </c>
       <c r="M6" t="s">
         <v>39</v>
       </c>
       <c r="N6">
-        <v>-0.6169</v>
+        <v>-0.6484</v>
       </c>
       <c r="O6">
-        <v>0.0342</v>
+        <v>0.09029999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1079,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>-5.4022</v>
+        <v>-5.6743</v>
       </c>
       <c r="J7">
         <v>12</v>
@@ -1088,16 +1088,16 @@
         <v>35</v>
       </c>
       <c r="L7">
-        <v>0.0002</v>
+        <v>0.0001</v>
       </c>
       <c r="M7" t="s">
         <v>40</v>
       </c>
       <c r="N7">
-        <v>-1.8885</v>
+        <v>-1.7078</v>
       </c>
       <c r="O7">
-        <v>0.0006000000000000001</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1124,7 +1124,7 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>-5.8011</v>
+        <v>-6.2311</v>
       </c>
       <c r="J8">
         <v>12</v>
@@ -1133,16 +1133,16 @@
         <v>35</v>
       </c>
       <c r="L8">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="M8" t="s">
         <v>41</v>
       </c>
       <c r="N8">
-        <v>-1.9042</v>
+        <v>-2.1274</v>
       </c>
       <c r="O8">
-        <v>0.0003</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
